--- a/dataAnalysis/plots.xlsx
+++ b/dataAnalysis/plots.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="energy" sheetId="1" r:id="rId1"/>
     <sheet name="overhead" sheetId="2" r:id="rId2"/>
     <sheet name="brTime" sheetId="3" r:id="rId3"/>
     <sheet name="lifeSpan" sheetId="4" r:id="rId4"/>
+    <sheet name="brNum" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>fanout=1</t>
   </si>
@@ -120,6 +121,15 @@
   <si>
     <t>Confidence Interval</t>
   </si>
+  <si>
+    <t>fanout=10</t>
+  </si>
+  <si>
+    <t>fanout=3</t>
+  </si>
+  <si>
+    <t>fanout = 7</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,8 +229,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -228,9 +250,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -245,6 +266,12 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -259,6 +286,12 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,7 +478,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>energy!$E$1</c:f>
+              <c:f>energy!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,7 +558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>energy!$E$2:$E$21</c:f>
+              <c:f>energy!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -599,7 +632,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>energy!$G$1</c:f>
+              <c:f>energy!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,69 +712,393 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>energy!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.065067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.722953425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0034466032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.629841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0094479231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.2866549811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5265885814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.8693756531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.76428938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.1262380714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.2028809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.12219444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.9249345652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.2632762727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.82645925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.916804282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.2788449412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.011899724</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275.281929031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>346.897200707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>energy!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>energy!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.45585769412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.62762485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.6391019365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5978272034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.9990344615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.295595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.607533814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.6351317551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.78315302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.6295792143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.5065042333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.58781876</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.8987398696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.1480219318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.37588384999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.025897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.517782206</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.339287517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275.31249625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>345.001721927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>energy!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.83544256471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8821228375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.9796790794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.7024216949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0141980385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.3572699811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0345574884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.7341353265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.0866921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5356549048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.8320798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.46975686</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.1953802826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.1686834545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.1924983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122.162873051</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.339162559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158.680176379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>296.014346312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>369.223865488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
               <c:f>energy!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.065067</c:v>
+                  <c:v>5.50861767059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.722953425</c:v>
+                  <c:v>8.747285162500001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0034466032</c:v>
+                  <c:v>10.9993069841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.629841</c:v>
+                  <c:v>14.5313094237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0094479231</c:v>
+                  <c:v>15.2815204808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.2866549811</c:v>
+                  <c:v>19.8044821321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.5265885814</c:v>
+                  <c:v>18.5329789302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.8693756531</c:v>
+                  <c:v>22.4793562041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.76428938</c:v>
+                  <c:v>23.07862024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.1262380714</c:v>
+                  <c:v>23.6301135952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.2028809</c:v>
+                  <c:v>25.1655552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.12219444</c:v>
+                  <c:v>30.56535528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.9249345652</c:v>
+                  <c:v>27.3998846522</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.2632762727</c:v>
+                  <c:v>30.5976749773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78.82645925</c:v>
+                  <c:v>83.124323325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>119.916804282</c:v>
+                  <c:v>103.034953436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.2788449412</c:v>
+                  <c:v>94.0939383824</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.011899724</c:v>
+                  <c:v>134.244859241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>275.281929031</c:v>
+                  <c:v>279.53143125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>346.897200707</c:v>
+                  <c:v>354.669703415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,11 +1115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082944440"/>
-        <c:axId val="2108551368"/>
+        <c:axId val="2112143544"/>
+        <c:axId val="2112016280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082944440"/>
+        <c:axId val="2112143544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +1129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108551368"/>
+        <c:crossAx val="2112016280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108551368"/>
+        <c:axId val="2112016280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +1148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082944440"/>
+        <c:crossAx val="2112143544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,7 +1349,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>overhead!$E$1</c:f>
+              <c:f>overhead!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,7 +1429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>overhead!$E$2:$E$21</c:f>
+              <c:f>overhead!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1146,7 +1503,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>overhead!$G$1</c:f>
+              <c:f>overhead!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1226,69 +1583,393 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>overhead!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.57211127059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.170016975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7417086032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0140722203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.1983990385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.848315717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0344573023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0180424082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.82421294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2295065714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.4404461667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.35490878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.6292834783</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.8365657727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.77641355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.80303561540001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.7967552941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>109.200493379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199.083109906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249.641767049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>overhead!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>overhead!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>overhead!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0374531529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.60759525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0855776667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8424614576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.3753636154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.9878593774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.801996814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5771249796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.80706072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.6545967143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.17959355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.05972614</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0228448478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.9072854318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.1871721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.340668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.8502960588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.8786747586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.72635525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250.094081268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>overhead!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>overhead!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.31402324706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.7702373875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6821738889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2939927797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8617706346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.457856283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.3647996512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.1952191429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.299039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.5050723095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.8121124167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.7992333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.1738640652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.0792870455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.84535515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.6746938205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.78331249999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>114.902528448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>211.513650625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>263.12757461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>overhead!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
               <c:f>overhead!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.57211127059</c:v>
+                  <c:v>9.99034256471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.170016975</c:v>
+                  <c:v>12.3592869625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.7417086032</c:v>
+                  <c:v>13.8874331587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.0140722203</c:v>
+                  <c:v>16.3869852373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.1983990385</c:v>
+                  <c:v>16.9219018269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.848315717</c:v>
+                  <c:v>20.1647889811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.0344573023</c:v>
+                  <c:v>19.2061267209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.0180424082</c:v>
+                  <c:v>21.9402033469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.82421294</c:v>
+                  <c:v>22.41559146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.2295065714</c:v>
+                  <c:v>22.8080110238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.4404461667</c:v>
+                  <c:v>23.9079487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.35490878</c:v>
+                  <c:v>27.70002228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.6292834783</c:v>
+                  <c:v>25.4608697391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.8365657727</c:v>
+                  <c:v>27.7591534091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.77641355</c:v>
+                  <c:v>64.69671169999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89.80303561540001</c:v>
+                  <c:v>78.9110959744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.7967552941</c:v>
+                  <c:v>72.502577</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109.200493379</c:v>
+                  <c:v>100.489792517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199.083109906</c:v>
+                  <c:v>203.149143969</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>249.641767049</c:v>
+                  <c:v>256.01893661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +1986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109388472"/>
-        <c:axId val="2109344008"/>
+        <c:axId val="2111393240"/>
+        <c:axId val="2111398792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109388472"/>
+        <c:axId val="2111393240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109344008"/>
+        <c:crossAx val="2111398792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109344008"/>
+        <c:axId val="2111398792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +2019,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109388472"/>
+        <c:crossAx val="2111393240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1539,7 +2219,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>brTime!$E$1</c:f>
+              <c:f>brTime!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1619,7 +2299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>brTime!$E$2:$E$21</c:f>
+              <c:f>brTime!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1693,7 +2373,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>brTime!$G$1</c:f>
+              <c:f>brTime!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1773,69 +2453,393 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>brTime!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.3771385892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8099228753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.6091848086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2264236033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7323508474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4393366136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.7328985892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.8240794063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.0768084105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2990231356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.701538524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.4313919999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.8925825438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.1344540807</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.9675580387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.3798671612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.0250818776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.056163455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.0113121793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.4921089413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brTime!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>brTime!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>brTime!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.62007711697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.47752110343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9317040855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7667219417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.2506119087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.9834120243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.6008049865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.5598956259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.622732279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.2217058759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.9830809258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.5462818143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.3341710865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.2298872462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.7920351431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.9822370932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.9530574661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.5826871295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.2909685942</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.1197917607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brTime!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>brTime!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.52760355299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6791003489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.672753094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.1987982594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.656909746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.9006202968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.9909759743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.4416870497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.0848553861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.4273773308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.7599146772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.4631501254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.404537752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.7019459028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.2938290469</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.7333584012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.4630274209</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.8721564371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.3914470106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.2258088232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brTime!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
               <c:f>brTime!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.3771385892</c:v>
+                  <c:v>5.6867568028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8099228753</c:v>
+                  <c:v>9.62469079235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6091848086</c:v>
+                  <c:v>12.3831446462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.2264236033</c:v>
+                  <c:v>16.675712994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.7323508474</c:v>
+                  <c:v>17.6193531919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.4393366136</c:v>
+                  <c:v>19.8216554296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.7328985892</c:v>
+                  <c:v>21.5376080187</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.8240794063</c:v>
+                  <c:v>26.327749514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.0768084105</c:v>
+                  <c:v>25.9282923137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.2990231356</c:v>
+                  <c:v>26.6690023008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.701538524</c:v>
+                  <c:v>29.077529702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.4313919999</c:v>
+                  <c:v>28.6153310589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.8925825438</c:v>
+                  <c:v>29.7342780875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.1344540807</c:v>
+                  <c:v>30.8892849064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.9675580387</c:v>
+                  <c:v>34.3586439231</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.3798671612</c:v>
+                  <c:v>36.6044802912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.0250818776</c:v>
+                  <c:v>33.3866994851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.056163455</c:v>
+                  <c:v>39.6085643529</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.0113121793</c:v>
+                  <c:v>41.6155196869</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.4921089413</c:v>
+                  <c:v>37.9047485467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,11 +2856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083060440"/>
-        <c:axId val="2080824200"/>
+        <c:axId val="2082189800"/>
+        <c:axId val="2082213800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083060440"/>
+        <c:axId val="2082189800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +2870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080824200"/>
+        <c:crossAx val="2082213800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1874,7 +2878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080824200"/>
+        <c:axId val="2082213800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,14 +2889,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083060440"/>
+        <c:crossAx val="2082189800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1923,7 +2926,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.04998984322362"/>
+          <c:y val="0.0111524163568773"/>
+          <c:w val="0.828654579097153"/>
+          <c:h val="0.928723765477271"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2086,7 +3099,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>lifeSpan!$E$1</c:f>
+              <c:f>lifeSpan!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2166,7 +3179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lifeSpan!$E$2:$E$21</c:f>
+              <c:f>lifeSpan!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2240,7 +3253,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>lifeSpan!$G$1</c:f>
+              <c:f>lifeSpan!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2320,7 +3333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lifeSpan!$G$2:$G$21</c:f>
+              <c:f>lifeSpan!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2383,6 +3396,176 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1189.13413337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifeSpan!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>lifeSpan!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1188.21205502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1187.90614689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.17877532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1188.47834786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1188.40942381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1188.57296251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1188.74235744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1188.80454304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1188.63693684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1188.73785805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1188.71178075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1188.83497944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1188.9068075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1188.81328707</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1188.91910805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1188.99003195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1189.01403897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1188.98302814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1189.01318256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1188.98642054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifeSpan!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>lifeSpan!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1189.19753474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1189.50859155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1189.50168576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1189.37645314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1189.26837637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1189.20945783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1189.03768923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1189.05471898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1189.02789828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1189.03621417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1189.06178158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1189.04806098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1189.03211889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1189.01384366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1189.03152867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1189.01343228</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1189.12131474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1189.14848452</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1189.04042369</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1189.15924188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,11 +3582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084102584"/>
-        <c:axId val="2080382712"/>
+        <c:axId val="2080397496"/>
+        <c:axId val="2086252744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084102584"/>
+        <c:axId val="2080397496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +3596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080382712"/>
+        <c:crossAx val="2086252744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +3604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080382712"/>
+        <c:axId val="2086252744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,14 +3615,883 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084102584"/>
+        <c:crossAx val="2080397496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adaptive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>brNum!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>132.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.7375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.4126984127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.9491525424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5576923077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5094339623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.6046511628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.693877551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.119047619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.7608695652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.8717948718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.5882352941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0344827586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>brNum!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>72.1294117647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.6125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.4285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2372881356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.9615384615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.9622641509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.3488372093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.7551020408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.2380952381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4833333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.6739130435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.7272727273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.275</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.8461538462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.1470588235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.31034482759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.92682926829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>brNum!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.31746031749999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.8644067797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.7692307692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.7924528302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.3023255814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.6734693878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.6739130435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.6136363636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.5128205128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.7647058824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.724137931</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.487804878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>brNum!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>197.929411765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.2875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.2033898305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.4230769231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.7924528302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.7906976744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.0408163265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.2380952381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.1333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.5434782609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.7727272727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.9743589744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.2352941176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.4137931034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.28125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.3414634146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>135.270588235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.6984126984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.1186440678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5384615385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.8604651163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.2857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.0476190476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.9166666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.2608695652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.4318181818</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0256410256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.5882352941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.4482758621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.90625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5853658537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>brNum!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fanout = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>brNum!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>195.141176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.3625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.1587301587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.4576271186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.0961538462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.9433962264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.3255813953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.3265306122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.6904761905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.6086956522</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.7272727273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.8974358974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.3529411765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.756097561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2080848760"/>
+        <c:axId val="2081293144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2080848760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2081293144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081293144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080848760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2459,15 +4511,120 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2489,94 +4646,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2919,7 +5006,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2939,19 +5026,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -2970,19 +5057,27 @@
       <c r="C2">
         <v>7.7515170235299999</v>
       </c>
+      <c r="D2" s="1">
+        <v>15.311403329399999</v>
+      </c>
       <c r="E2" s="1">
-        <v>15.311403329399999</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>7.8354425647100001</v>
+      </c>
+      <c r="F2">
+        <v>6.065067</v>
+      </c>
       <c r="G2">
-        <v>6.065067</v>
+        <v>5.5086176705899996</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.4558576941199997</v>
       </c>
       <c r="I2" s="3">
-        <f>100*(E2-C2)/E2</f>
+        <f t="shared" ref="I2:I21" si="0">100*(D2-C2)/D2</f>
         <v>49.374222226606612</v>
       </c>
       <c r="J2" s="3">
-        <f>100*(G2-C2)/G2</f>
+        <f t="shared" ref="J2:J21" si="1">100*(F2-C2)/F2</f>
         <v>-27.805958673333699</v>
       </c>
     </row>
@@ -2996,19 +5091,27 @@
       <c r="C3">
         <v>12.573450062499999</v>
       </c>
+      <c r="D3" s="1">
+        <v>25.358033724999999</v>
+      </c>
       <c r="E3" s="1">
-        <v>25.358033724999999</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>12.882122837500001</v>
+      </c>
+      <c r="F3">
+        <v>9.722953425</v>
+      </c>
       <c r="G3">
-        <v>9.722953425</v>
+        <v>8.7472851625000008</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.6276248500000001</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="0">100*(E3-C3)/E3</f>
+        <f t="shared" si="0"/>
         <v>50.41630514867532</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J21" si="1">100*(G3-C3)/G3</f>
+        <f t="shared" si="1"/>
         <v>-29.317189056678004</v>
       </c>
     </row>
@@ -3022,12 +5125,20 @@
       <c r="C4">
         <v>16.297465841299999</v>
       </c>
+      <c r="D4" s="1">
+        <v>33.298091809500001</v>
+      </c>
       <c r="E4" s="1">
-        <v>33.298091809500001</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>16.9796790794</v>
+      </c>
+      <c r="F4">
+        <v>12.0034466032</v>
+      </c>
       <c r="G4">
-        <v>12.0034466032</v>
+        <v>10.9993069841</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10.639101936499999</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -3048,12 +5159,20 @@
       <c r="C5">
         <v>20.755308220300002</v>
       </c>
+      <c r="D5" s="1">
+        <v>43.267866406800003</v>
+      </c>
       <c r="E5" s="1">
-        <v>43.267866406800003</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>20.7024216949</v>
+      </c>
+      <c r="F5">
+        <v>16.629840999999999</v>
+      </c>
       <c r="G5">
-        <v>16.629840999999999</v>
+        <v>14.5313094237</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14.5978272034</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -3074,12 +5193,20 @@
       <c r="C6">
         <v>22.924347076899998</v>
       </c>
+      <c r="D6" s="1">
+        <v>43.703355999999999</v>
+      </c>
       <c r="E6" s="1">
-        <v>43.703355999999999</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>23.014198038499998</v>
+      </c>
+      <c r="F6">
+        <v>17.009447923100002</v>
+      </c>
       <c r="G6">
-        <v>17.009447923100002</v>
+        <v>15.281520480799999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14.999034461500001</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
@@ -3100,12 +5227,20 @@
       <c r="C7">
         <v>28.379071962299999</v>
       </c>
+      <c r="D7" s="1">
+        <v>56.065375830199997</v>
+      </c>
       <c r="E7" s="1">
-        <v>56.065375830199997</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>25.3572699811</v>
+      </c>
+      <c r="F7">
+        <v>19.2866549811</v>
+      </c>
       <c r="G7">
-        <v>19.2866549811</v>
+        <v>19.804482132099999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17.295594999999999</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -3126,12 +5261,20 @@
       <c r="C8">
         <v>26.278850139500001</v>
       </c>
+      <c r="D8" s="1">
+        <v>53.763669767400003</v>
+      </c>
       <c r="E8" s="1">
-        <v>53.763669767400003</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>28.034557488400001</v>
+      </c>
+      <c r="F8">
+        <v>19.526588581399999</v>
+      </c>
       <c r="G8">
-        <v>19.526588581399999</v>
+        <v>18.532978930199999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18.607533814</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -3152,12 +5295,20 @@
       <c r="C9">
         <v>33.009101061199999</v>
       </c>
+      <c r="D9" s="1">
+        <v>62.072077612199998</v>
+      </c>
       <c r="E9" s="1">
-        <v>62.072077612199998</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>30.734135326499999</v>
+      </c>
+      <c r="F9">
+        <v>23.869375653100001</v>
+      </c>
       <c r="G9">
-        <v>23.869375653100001</v>
+        <v>22.4793562041</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22.635131755100002</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -3178,12 +5329,20 @@
       <c r="C10">
         <v>36.671283780000003</v>
       </c>
+      <c r="D10" s="1">
+        <v>67.314030239999994</v>
+      </c>
       <c r="E10" s="1">
-        <v>67.314030239999994</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>35.0866921</v>
+      </c>
+      <c r="F10">
+        <v>27.764289380000001</v>
+      </c>
       <c r="G10">
-        <v>27.764289380000001</v>
+        <v>23.078620239999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.78315302</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3204,12 +5363,20 @@
       <c r="C11">
         <v>35.536725238099997</v>
       </c>
+      <c r="D11" s="1">
+        <v>65.401791595199995</v>
+      </c>
       <c r="E11" s="1">
-        <v>65.401791595199995</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>32.535654904799998</v>
+      </c>
+      <c r="F11">
+        <v>24.1262380714</v>
+      </c>
       <c r="G11">
-        <v>24.1262380714</v>
+        <v>23.630113595200001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22.629579214300001</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -3230,12 +5397,20 @@
       <c r="C12">
         <v>34.304937866700001</v>
       </c>
+      <c r="D12" s="1">
+        <v>77.742217133300002</v>
+      </c>
       <c r="E12" s="1">
-        <v>77.742217133300002</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>35.832079800000002</v>
+      </c>
+      <c r="F12">
+        <v>27.2028809</v>
+      </c>
       <c r="G12">
-        <v>27.2028809</v>
+        <v>25.1655552</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27.506504233299999</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -3256,12 +5431,20 @@
       <c r="C13">
         <v>42.210013060000001</v>
       </c>
+      <c r="D13" s="1">
+        <v>77.282915779999996</v>
+      </c>
       <c r="E13" s="1">
-        <v>77.282915779999996</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>41.469756859999997</v>
+      </c>
+      <c r="F13">
+        <v>27.122194440000001</v>
+      </c>
       <c r="G13">
-        <v>27.122194440000001</v>
+        <v>30.565355279999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24.587818760000001</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -3282,12 +5465,20 @@
       <c r="C14">
         <v>37.454471956500001</v>
       </c>
+      <c r="D14" s="1">
+        <v>87.166827282599996</v>
+      </c>
       <c r="E14" s="1">
-        <v>87.166827282599996</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>39.195380282599999</v>
+      </c>
+      <c r="F14">
+        <v>28.924934565200001</v>
+      </c>
       <c r="G14">
-        <v>28.924934565200001</v>
+        <v>27.399884652200001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25.8987398696</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -3308,12 +5499,20 @@
       <c r="C15">
         <v>46.798248136399998</v>
       </c>
+      <c r="D15" s="1">
+        <v>92.150313909100007</v>
+      </c>
       <c r="E15" s="1">
-        <v>92.150313909100007</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>70.168683454499998</v>
+      </c>
+      <c r="F15">
+        <v>36.263276272699997</v>
+      </c>
       <c r="G15">
-        <v>36.263276272699997</v>
+        <v>30.597674977299999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>27.148021931799999</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -3334,12 +5533,20 @@
       <c r="C16">
         <v>86.642933900000003</v>
       </c>
+      <c r="D16" s="1">
+        <v>140.3640317</v>
+      </c>
       <c r="E16" s="1">
-        <v>140.3640317</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>97.192498299999997</v>
+      </c>
+      <c r="F16">
+        <v>78.826459249999999</v>
+      </c>
       <c r="G16">
-        <v>78.826459249999999</v>
+        <v>83.124323325000006</v>
+      </c>
+      <c r="H16" s="1">
+        <v>74.375883849999994</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -3360,12 +5567,20 @@
       <c r="C17">
         <v>124.71643753799999</v>
       </c>
+      <c r="D17" s="1">
+        <v>155.06813010299999</v>
+      </c>
       <c r="E17" s="1">
-        <v>155.06813010299999</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>122.16287305100001</v>
+      </c>
+      <c r="F17">
+        <v>119.916804282</v>
+      </c>
       <c r="G17">
-        <v>119.916804282</v>
+        <v>103.034953436</v>
+      </c>
+      <c r="H17" s="1">
+        <v>107.025897</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -3386,12 +5601,20 @@
       <c r="C18">
         <v>99.880976323499993</v>
       </c>
+      <c r="D18" s="1">
+        <v>168.53333064700001</v>
+      </c>
       <c r="E18" s="1">
-        <v>168.53333064700001</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>128.33916255899999</v>
+      </c>
+      <c r="F18">
+        <v>97.278844941200006</v>
+      </c>
       <c r="G18">
-        <v>97.278844941200006</v>
+        <v>94.093938382399998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>116.51778220600001</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -3412,12 +5635,20 @@
       <c r="C19">
         <v>154.77732248300001</v>
       </c>
+      <c r="D19" s="1">
+        <v>188.19124037899999</v>
+      </c>
       <c r="E19" s="1">
-        <v>188.19124037899999</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>158.68017637899999</v>
+      </c>
+      <c r="F19">
+        <v>148.01189972399999</v>
+      </c>
       <c r="G19">
-        <v>148.01189972399999</v>
+        <v>134.244859241</v>
+      </c>
+      <c r="H19" s="1">
+        <v>128.339287517</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
@@ -3438,12 +5669,20 @@
       <c r="C20">
         <v>284.869853406</v>
       </c>
+      <c r="D20" s="1">
+        <v>329.61024840599998</v>
+      </c>
       <c r="E20" s="1">
-        <v>329.61024840599998</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>296.01434631199999</v>
+      </c>
+      <c r="F20">
+        <v>275.281929031</v>
+      </c>
       <c r="G20">
-        <v>275.281929031</v>
+        <v>279.53143125000003</v>
+      </c>
+      <c r="H20" s="1">
+        <v>275.31249624999998</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -3464,12 +5703,20 @@
       <c r="C21">
         <v>347.06430941500003</v>
       </c>
+      <c r="D21" s="1">
+        <v>420.61286190200002</v>
+      </c>
       <c r="E21" s="1">
-        <v>420.61286190200002</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>369.223865488</v>
+      </c>
+      <c r="F21">
+        <v>346.89720070700002</v>
+      </c>
       <c r="G21">
-        <v>346.89720070700002</v>
+        <v>354.66970341500001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>345.00172192700001</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
@@ -3530,9 +5777,6 @@
       </c>
       <c r="C30">
         <v>0.5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3564,8 +5808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3585,19 +5829,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -3616,19 +5860,27 @@
       <c r="C2">
         <v>9.4853670235299994</v>
       </c>
+      <c r="D2" s="1">
+        <v>11.984328764700001</v>
+      </c>
       <c r="E2" s="1">
-        <v>11.984328764700001</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>9.3140232470599997</v>
+      </c>
+      <c r="F2">
+        <v>9.5721112705899998</v>
+      </c>
       <c r="G2">
-        <v>9.5721112705899998</v>
+        <v>9.9903425647099997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10.0374531529</v>
       </c>
       <c r="I2" s="3">
-        <f>100*(E2-C2)/E2</f>
+        <f t="shared" ref="I2:I21" si="0">100*(D2-C2)/D2</f>
         <v>20.851912445282093</v>
       </c>
       <c r="J2" s="3">
-        <f>100*(G2-C2)/G2</f>
+        <f t="shared" ref="J2:J21" si="1">100*(F2-C2)/F2</f>
         <v>0.90621854059009177</v>
       </c>
     </row>
@@ -3642,19 +5894,27 @@
       <c r="C3">
         <v>12.891776925</v>
       </c>
+      <c r="D3" s="1">
+        <v>19.010471187499999</v>
+      </c>
       <c r="E3" s="1">
-        <v>19.010471187499999</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>12.7702373875</v>
+      </c>
+      <c r="F3">
+        <v>12.170016974999999</v>
+      </c>
       <c r="G3">
-        <v>12.170016974999999</v>
+        <v>12.359286962500001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>12.607595249999999</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="0">100*(E3-C3)/E3</f>
+        <f t="shared" si="0"/>
         <v>32.185915867899361</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J21" si="1">100*(G3-C3)/G3</f>
+        <f t="shared" si="1"/>
         <v>-5.9306404541806392</v>
       </c>
     </row>
@@ -3668,12 +5928,20 @@
       <c r="C4">
         <v>15.5019521746</v>
       </c>
+      <c r="D4" s="1">
+        <v>24.544575269799999</v>
+      </c>
       <c r="E4" s="1">
-        <v>24.544575269799999</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>15.6821738889</v>
+      </c>
+      <c r="F4">
+        <v>13.741708603199999</v>
+      </c>
       <c r="G4">
-        <v>13.741708603199999</v>
+        <v>13.8874331587</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14.085577666700001</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -3694,12 +5962,20 @@
       <c r="C5">
         <v>18.657126627099998</v>
       </c>
+      <c r="D5" s="1">
+        <v>31.483274813600001</v>
+      </c>
       <c r="E5" s="1">
-        <v>31.483274813600001</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>18.293992779700002</v>
+      </c>
+      <c r="F5">
+        <v>17.014072220300001</v>
+      </c>
       <c r="G5">
-        <v>17.014072220300001</v>
+        <v>16.386985237299999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16.842461457599999</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -3720,12 +5996,20 @@
       <c r="C6">
         <v>20.053451980799998</v>
       </c>
+      <c r="D6" s="1">
+        <v>31.761179846200001</v>
+      </c>
       <c r="E6" s="1">
-        <v>31.761179846200001</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>19.861770634599999</v>
+      </c>
+      <c r="F6">
+        <v>17.1983990385</v>
+      </c>
       <c r="G6">
-        <v>17.1983990385</v>
+        <v>16.921901826900001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17.375363615400001</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
@@ -3746,12 +6030,20 @@
       <c r="C7">
         <v>23.9709678113</v>
       </c>
+      <c r="D7" s="1">
+        <v>40.396826377399996</v>
+      </c>
       <c r="E7" s="1">
-        <v>40.396826377399996</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>21.457856283000002</v>
+      </c>
+      <c r="F7">
+        <v>18.848315716999998</v>
+      </c>
       <c r="G7">
-        <v>18.848315716999998</v>
+        <v>20.164788981099999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18.9878593774</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -3772,12 +6064,20 @@
       <c r="C8">
         <v>22.529325581399998</v>
       </c>
+      <c r="D8" s="1">
+        <v>38.784514441900001</v>
+      </c>
       <c r="E8" s="1">
-        <v>38.784514441900001</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>23.364799651199998</v>
+      </c>
+      <c r="F8">
+        <v>19.034457302300002</v>
+      </c>
       <c r="G8">
-        <v>19.034457302300002</v>
+        <v>19.206126720899999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19.801996813999999</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -3798,12 +6098,20 @@
       <c r="C9">
         <v>27.178877918400001</v>
       </c>
+      <c r="D9" s="1">
+        <v>44.462091877600002</v>
+      </c>
       <c r="E9" s="1">
-        <v>44.462091877600002</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>25.195219142900001</v>
+      </c>
+      <c r="F9">
+        <v>22.018042408199999</v>
+      </c>
       <c r="G9">
-        <v>22.018042408199999</v>
+        <v>21.940203346899999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22.577124979600001</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -3824,12 +6132,20 @@
       <c r="C10">
         <v>29.852712660000002</v>
       </c>
+      <c r="D10" s="1">
+        <v>48.15238308</v>
+      </c>
       <c r="E10" s="1">
-        <v>48.15238308</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>28.299039</v>
+      </c>
+      <c r="F10">
+        <v>24.824212939999999</v>
+      </c>
       <c r="G10">
-        <v>24.824212939999999</v>
+        <v>22.415591460000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.807060719999999</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3850,12 +6166,20 @@
       <c r="C11">
         <v>29.114455023800001</v>
       </c>
+      <c r="D11" s="1">
+        <v>46.779468047599998</v>
+      </c>
       <c r="E11" s="1">
-        <v>46.779468047599998</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>26.505072309500001</v>
+      </c>
+      <c r="F11">
+        <v>22.229506571400002</v>
+      </c>
       <c r="G11">
-        <v>22.229506571400002</v>
+        <v>22.808011023799999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22.654596714299998</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -3876,12 +6200,20 @@
       <c r="C12">
         <v>28.1412002667</v>
       </c>
+      <c r="D12" s="1">
+        <v>55.31009435</v>
+      </c>
       <c r="E12" s="1">
-        <v>55.31009435</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>28.8121124167</v>
+      </c>
+      <c r="F12">
+        <v>24.440446166699999</v>
+      </c>
       <c r="G12">
-        <v>24.440446166699999</v>
+        <v>23.907948699999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26.17959355</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -3902,12 +6234,20 @@
       <c r="C13">
         <v>33.874361499999999</v>
       </c>
+      <c r="D13" s="1">
+        <v>55.054671839999997</v>
+      </c>
       <c r="E13" s="1">
-        <v>55.054671839999997</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>32.799233299999997</v>
+      </c>
+      <c r="F13">
+        <v>24.354908779999999</v>
+      </c>
       <c r="G13">
-        <v>24.354908779999999</v>
+        <v>27.700022279999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24.059726139999999</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -3928,12 +6268,20 @@
       <c r="C14">
         <v>30.4043941087</v>
       </c>
+      <c r="D14" s="1">
+        <v>61.823556500000002</v>
+      </c>
       <c r="E14" s="1">
-        <v>61.823556500000002</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>31.1738640652</v>
+      </c>
+      <c r="F14">
+        <v>25.6292834783</v>
+      </c>
       <c r="G14">
-        <v>25.6292834783</v>
+        <v>25.460869739100001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25.022844847799998</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -3954,12 +6302,20 @@
       <c r="C15">
         <v>37.061877250000002</v>
       </c>
+      <c r="D15" s="1">
+        <v>65.388790181800005</v>
+      </c>
       <c r="E15" s="1">
-        <v>65.388790181800005</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>53.079287045500003</v>
+      </c>
+      <c r="F15">
+        <v>30.836565772699998</v>
+      </c>
       <c r="G15">
-        <v>30.836565772699998</v>
+        <v>27.759153409100001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>25.907285431799998</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -3980,12 +6336,20 @@
       <c r="C16">
         <v>65.168810949999994</v>
       </c>
+      <c r="D16" s="1">
+        <v>98.838345200000006</v>
+      </c>
       <c r="E16" s="1">
-        <v>98.838345200000006</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>71.845355150000003</v>
+      </c>
+      <c r="F16">
+        <v>60.776413550000001</v>
+      </c>
       <c r="G16">
-        <v>60.776413550000001</v>
+        <v>64.696711699999994</v>
+      </c>
+      <c r="H16" s="1">
+        <v>59.187172099999998</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -4006,12 +6370,20 @@
       <c r="C17">
         <v>92.004106461500001</v>
       </c>
+      <c r="D17" s="1">
+        <v>109.475767641</v>
+      </c>
       <c r="E17" s="1">
-        <v>109.475767641</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>89.674693820499996</v>
+      </c>
+      <c r="F17">
+        <v>89.803035615400006</v>
+      </c>
       <c r="G17">
-        <v>89.803035615400006</v>
+        <v>78.911095974399998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>82.340667999999994</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4032,12 +6404,20 @@
       <c r="C18">
         <v>74.450334558799995</v>
       </c>
+      <c r="D18" s="1">
+        <v>118.703688353</v>
+      </c>
       <c r="E18" s="1">
-        <v>118.703688353</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>93.783312499999994</v>
+      </c>
+      <c r="F18">
+        <v>73.796755294099995</v>
+      </c>
       <c r="G18">
-        <v>73.796755294099995</v>
+        <v>72.502577000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>88.850296058799998</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -4058,12 +6438,20 @@
       <c r="C19">
         <v>112.92118210300001</v>
       </c>
+      <c r="D19" s="1">
+        <v>131.869941931</v>
+      </c>
       <c r="E19" s="1">
-        <v>131.869941931</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>114.902528448</v>
+      </c>
+      <c r="F19">
+        <v>109.20049337899999</v>
+      </c>
       <c r="G19">
-        <v>109.20049337899999</v>
+        <v>100.489792517</v>
+      </c>
+      <c r="H19" s="1">
+        <v>96.878674758599999</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
@@ -4084,12 +6472,20 @@
       <c r="C20">
         <v>204.99945578099999</v>
       </c>
+      <c r="D20" s="1">
+        <v>230.856470406</v>
+      </c>
       <c r="E20" s="1">
-        <v>230.856470406</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>211.513650625</v>
+      </c>
+      <c r="F20">
+        <v>199.083109906</v>
+      </c>
       <c r="G20">
-        <v>199.083109906</v>
+        <v>203.14914396899999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200.72635525000001</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4110,12 +6506,20 @@
       <c r="C21">
         <v>249.02347568299999</v>
       </c>
+      <c r="D21" s="1">
+        <v>294.76212917100003</v>
+      </c>
       <c r="E21" s="1">
-        <v>294.76212917100003</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>263.12757461000001</v>
+      </c>
+      <c r="F21">
+        <v>249.64176704900001</v>
+      </c>
       <c r="G21">
-        <v>249.64176704900001</v>
+        <v>256.01893661000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>250.094081268</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
@@ -4164,7 +6568,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4184,19 +6588,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
@@ -4215,20 +6619,27 @@
       <c r="C2" s="1">
         <v>8.3578918132400002</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>17.6722658238</v>
+      </c>
       <c r="E2" s="1">
-        <v>17.6722658238</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>8.5276035529899996</v>
+      </c>
+      <c r="F2">
+        <v>6.3771385892000003</v>
+      </c>
       <c r="G2">
-        <v>6.3771385892000003</v>
+        <v>5.6867568027999997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.6200771169700001</v>
       </c>
       <c r="I2" s="3">
-        <f>100*(E2-C2)/E2</f>
+        <f t="shared" ref="I2:I21" si="0">100*(D2-C2)/D2</f>
         <v>52.706167411854636</v>
       </c>
       <c r="J2" s="3">
-        <f>100*(G2-C2)/G2</f>
+        <f t="shared" ref="J2:J21" si="1">100*(F2-C2)/F2</f>
         <v>-31.060219192891676</v>
       </c>
     </row>
@@ -4242,20 +6653,27 @@
       <c r="C3" s="1">
         <v>14.2015879875</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>29.829433445500001</v>
+      </c>
       <c r="E3" s="1">
-        <v>29.829433445500001</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>14.6791003489</v>
+      </c>
+      <c r="F3">
+        <v>10.8099228753</v>
+      </c>
       <c r="G3">
-        <v>10.8099228753</v>
+        <v>9.62469079235</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9.47752110343</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="0">100*(E3-C3)/E3</f>
+        <f t="shared" si="0"/>
         <v>52.390688165609738</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J21" si="1">100*(G3-C3)/G3</f>
+        <f t="shared" si="1"/>
         <v>-31.375479282555695</v>
       </c>
     </row>
@@ -4269,13 +6687,20 @@
       <c r="C4" s="1">
         <v>18.693782419200001</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>39.578236148400002</v>
+      </c>
       <c r="E4" s="1">
-        <v>39.578236148400002</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>19.672753094000001</v>
+      </c>
+      <c r="F4">
+        <v>13.6091848086</v>
+      </c>
       <c r="G4">
-        <v>13.6091848086</v>
+        <v>12.3831446462</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.9317040855</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -4296,13 +6721,20 @@
       <c r="C5" s="1">
         <v>23.986640575999999</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>50.5400992434</v>
+      </c>
       <c r="E5" s="1">
-        <v>50.5400992434</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>24.1987982594</v>
+      </c>
+      <c r="F5">
+        <v>19.226423603299999</v>
+      </c>
       <c r="G5">
-        <v>19.226423603299999</v>
+        <v>16.675712994000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16.766721941699998</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -4323,13 +6755,20 @@
       <c r="C6" s="1">
         <v>26.6404386647</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>51.079352144399998</v>
+      </c>
       <c r="E6" s="1">
-        <v>51.079352144399998</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>26.656909746</v>
+      </c>
+      <c r="F6">
+        <v>19.732350847399999</v>
+      </c>
       <c r="G6">
-        <v>19.732350847399999</v>
+        <v>17.6193531919</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17.250611908700002</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
@@ -4350,13 +6789,20 @@
       <c r="C7" s="1">
         <v>30.053417893999999</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>61.105098997100001</v>
+      </c>
       <c r="E7" s="1">
-        <v>61.105098997100001</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>28.9006202968</v>
+      </c>
+      <c r="F7">
+        <v>22.439336613599998</v>
+      </c>
       <c r="G7">
-        <v>22.439336613599998</v>
+        <v>19.8216554296</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19.983412024300002</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -4377,13 +6823,20 @@
       <c r="C8" s="1">
         <v>30.349320196699999</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>64.413229185399999</v>
+      </c>
       <c r="E8" s="1">
-        <v>64.413229185399999</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>31.9909759743</v>
+      </c>
+      <c r="F8">
+        <v>22.732898589200001</v>
+      </c>
       <c r="G8">
-        <v>22.732898589200001</v>
+        <v>21.537608018699999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>21.600804986499998</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -4404,13 +6857,20 @@
       <c r="C9" s="1">
         <v>36.2010189991</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>70.786770727000004</v>
+      </c>
       <c r="E9" s="1">
-        <v>70.786770727000004</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>35.441687049700001</v>
+      </c>
+      <c r="F9">
+        <v>26.824079406300001</v>
+      </c>
       <c r="G9">
-        <v>26.824079406300001</v>
+        <v>26.327749514000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>26.559895625900001</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -4431,13 +6891,20 @@
       <c r="C10" s="1">
         <v>37.268252845200003</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>77.047572814199995</v>
+      </c>
       <c r="E10" s="1">
-        <v>77.047572814199995</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>39.084855386100003</v>
+      </c>
+      <c r="F10">
+        <v>28.0768084105</v>
+      </c>
       <c r="G10">
-        <v>28.0768084105</v>
+        <v>25.928292313699998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25.622732279000001</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -4458,13 +6925,20 @@
       <c r="C11" s="1">
         <v>36.3801728985</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>76.645434915500005</v>
+      </c>
       <c r="E11" s="1">
-        <v>76.645434915500005</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>37.427377330799999</v>
+      </c>
+      <c r="F11">
+        <v>28.299023135599999</v>
+      </c>
       <c r="G11">
-        <v>28.299023135599999</v>
+        <v>26.669002300799999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26.2217058759</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -4485,13 +6959,20 @@
       <c r="C12" s="1">
         <v>39.2289728103</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>86.353770320199999</v>
+      </c>
       <c r="E12" s="1">
-        <v>86.353770320199999</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>40.759914677200001</v>
+      </c>
+      <c r="F12">
+        <v>29.701538524</v>
+      </c>
       <c r="G12">
-        <v>29.701538524</v>
+        <v>29.077529702</v>
+      </c>
+      <c r="H12" s="1">
+        <v>28.9830809258</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -4512,13 +6993,20 @@
       <c r="C13" s="1">
         <v>38.503165541900003</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>81.181977238499996</v>
+      </c>
       <c r="E13" s="1">
-        <v>81.181977238499996</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>41.463150125399999</v>
+      </c>
+      <c r="F13">
+        <v>30.431391999900001</v>
+      </c>
       <c r="G13">
-        <v>30.431391999900001</v>
+        <v>28.615331058900001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>28.546281814299999</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -4539,13 +7027,20 @@
       <c r="C14" s="1">
         <v>40.547650603699999</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>89.418173360200001</v>
+      </c>
       <c r="E14" s="1">
-        <v>89.418173360200001</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>41.404537752000003</v>
+      </c>
+      <c r="F14">
+        <v>30.8925825438</v>
+      </c>
       <c r="G14">
-        <v>30.8925825438</v>
+        <v>29.734278087500002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>30.3341710865</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -4566,13 +7061,20 @@
       <c r="C15" s="1">
         <v>44.191892839799998</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>91.491490738500005</v>
+      </c>
       <c r="E15" s="1">
-        <v>91.491490738500005</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>45.701945902799999</v>
+      </c>
+      <c r="F15">
+        <v>33.134454080700003</v>
+      </c>
       <c r="G15">
-        <v>33.134454080700003</v>
+        <v>30.8892849064</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30.229887246200001</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -4593,13 +7095,20 @@
       <c r="C16" s="1">
         <v>42.667874283400003</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>92.997131926799995</v>
+      </c>
       <c r="E16" s="1">
-        <v>92.997131926799995</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>48.293829046900001</v>
+      </c>
+      <c r="F16">
+        <v>34.967558038699998</v>
+      </c>
       <c r="G16">
-        <v>34.967558038699998</v>
+        <v>34.358643923099997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>29.792035143100001</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -4620,13 +7129,20 @@
       <c r="C17" s="1">
         <v>50.157004136200001</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>99.764842190799996</v>
+      </c>
       <c r="E17" s="1">
-        <v>99.764842190799996</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>52.7333584012</v>
+      </c>
+      <c r="F17">
+        <v>40.379867161200004</v>
+      </c>
       <c r="G17">
-        <v>40.379867161200004</v>
+        <v>36.604480291199998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>37.982237093199998</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4647,13 +7163,20 @@
       <c r="C18" s="1">
         <v>47.756792843900001</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>96.941610451100004</v>
+      </c>
       <c r="E18" s="1">
-        <v>96.941610451100004</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>50.463027420899998</v>
+      </c>
+      <c r="F18">
+        <v>38.025081877600002</v>
+      </c>
       <c r="G18">
-        <v>38.025081877600002</v>
+        <v>33.386699485100003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>31.953057466099999</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -4674,13 +7197,20 @@
       <c r="C19" s="1">
         <v>47.755693549900002</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>105.27562077499999</v>
+      </c>
       <c r="E19" s="1">
-        <v>105.27562077499999</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>52.872156437100003</v>
+      </c>
+      <c r="F19">
+        <v>40.056163454999997</v>
+      </c>
       <c r="G19">
-        <v>40.056163454999997</v>
+        <v>39.608564352899997</v>
+      </c>
+      <c r="H19" s="1">
+        <v>37.582687129500002</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
@@ -4701,13 +7231,20 @@
       <c r="C20" s="1">
         <v>53.259247084800002</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>116.523208848</v>
+      </c>
       <c r="E20" s="1">
-        <v>116.523208848</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>56.391447010599997</v>
+      </c>
+      <c r="F20">
+        <v>46.011312179299999</v>
+      </c>
       <c r="G20">
-        <v>46.011312179299999</v>
+        <v>41.615519686900001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44.290968594200002</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4728,13 +7265,20 @@
       <c r="C21" s="1">
         <v>46.973879341599996</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>113.937552117</v>
+      </c>
       <c r="E21" s="1">
-        <v>113.937552117</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>63.225808823199998</v>
+      </c>
+      <c r="F21">
+        <v>41.492108941300003</v>
+      </c>
       <c r="G21">
-        <v>41.492108941300003</v>
+        <v>37.904748546699999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37.119791760699997</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
@@ -4779,19 +7323,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -4802,28 +7346,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>85</v>
       </c>
@@ -4833,24 +7377,31 @@
       <c r="C2" s="1">
         <v>1189.34644936</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>1190.37952668</v>
+      </c>
       <c r="E2" s="1">
-        <v>1190.37952668</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>1189.19753474</v>
+      </c>
+      <c r="F2">
+        <v>1188.6669972899999</v>
+      </c>
       <c r="G2">
-        <v>1188.6669972899999</v>
-      </c>
-      <c r="I2">
-        <f>100*ABS((E2-C2))/E2</f>
+        <v>1188.2257712099999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1188.21205502</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J21" si="0">100*ABS((D2-C2))/D2</f>
         <v>8.6785541656731524E-2</v>
       </c>
-      <c r="J2">
-        <f>100*ABS(G2-C2)/G2</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K21" si="1">100*ABS(F2-C2)/F2</f>
         <v>5.7160842485665345E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>80</v>
       </c>
@@ -4860,24 +7411,31 @@
       <c r="C3" s="1">
         <v>1189.1534590399999</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1189.8177243499999</v>
+      </c>
       <c r="E3" s="1">
-        <v>1189.8177243499999</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>1189.5085915499999</v>
+      </c>
+      <c r="F3">
+        <v>1188.8183166900001</v>
+      </c>
       <c r="G3">
-        <v>1188.8183166900001</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I21" si="0">100*ABS((E3-C3))/E3</f>
+        <v>1188.24105865</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1187.9061468899999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
         <v>5.5829165796207017E-2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J21" si="1">100*ABS(G3-C3)/G3</f>
+      <c r="K3">
+        <f t="shared" si="1"/>
         <v>2.8191216882742107E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>63</v>
       </c>
@@ -4887,24 +7445,31 @@
       <c r="C4" s="1">
         <v>1189.48601302</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>1189.2692798999999</v>
+      </c>
       <c r="E4" s="1">
-        <v>1189.2692798999999</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1189.5016857600001</v>
+      </c>
+      <c r="F4">
+        <v>1188.87025008</v>
+      </c>
       <c r="G4">
-        <v>1188.87025008</v>
-      </c>
-      <c r="I4">
+        <v>1188.6240505200001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1188.1787753200001</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>1.8224057718727569E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>5.1793956485876626E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>59</v>
       </c>
@@ -4914,24 +7479,31 @@
       <c r="C5" s="1">
         <v>1189.3294968499999</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1189.1889207500001</v>
+      </c>
       <c r="E5" s="1">
-        <v>1189.1889207500001</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>1189.37645314</v>
+      </c>
+      <c r="F5">
+        <v>1188.94680369</v>
+      </c>
       <c r="G5">
-        <v>1188.94680369</v>
-      </c>
-      <c r="I5">
+        <v>1188.62124569</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1188.47834786</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>1.1821174713871632E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>3.2187576333288878E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>52</v>
       </c>
@@ -4941,24 +7513,31 @@
       <c r="C6" s="1">
         <v>1189.1615346000001</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1189.18195206</v>
+      </c>
       <c r="E6" s="1">
-        <v>1189.18195206</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>1189.2683763699999</v>
+      </c>
+      <c r="F6">
+        <v>1189.0087412099999</v>
+      </c>
       <c r="G6">
-        <v>1189.0087412099999</v>
-      </c>
-      <c r="I6">
+        <v>1188.6869710599999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1188.4094238099999</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1.7169332215724858E-3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>1.285048500523882E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>53</v>
       </c>
@@ -4968,24 +7547,31 @@
       <c r="C7" s="1">
         <v>1189.22495106</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>1189.18722598</v>
+      </c>
       <c r="E7" s="1">
-        <v>1189.18722598</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>1189.20945783</v>
+      </c>
+      <c r="F7">
+        <v>1188.9212245799999</v>
+      </c>
       <c r="G7">
-        <v>1188.9212245799999</v>
-      </c>
-      <c r="I7">
+        <v>1188.8541545999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1188.57296251</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>3.1723415098815857E-3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>2.5546392285773E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>43</v>
       </c>
@@ -4995,24 +7581,31 @@
       <c r="C8" s="1">
         <v>1189.08545609</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>1189.17628023</v>
+      </c>
       <c r="E8" s="1">
-        <v>1189.17628023</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>1189.0376892300001</v>
+      </c>
+      <c r="F8">
+        <v>1189.0913022300001</v>
+      </c>
       <c r="G8">
-        <v>1189.0913022300001</v>
-      </c>
-      <c r="I8">
+        <v>1188.73254563</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1188.74235744</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>7.6375674077882516E-3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>4.9164769678887346E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>49</v>
       </c>
@@ -5022,24 +7615,31 @@
       <c r="C9" s="1">
         <v>1189.09215718</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1189.03617616</v>
+      </c>
       <c r="E9" s="1">
-        <v>1189.03617616</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>1189.05471898</v>
+      </c>
+      <c r="F9">
+        <v>1189.0593988200001</v>
+      </c>
       <c r="G9">
-        <v>1189.0593988200001</v>
-      </c>
-      <c r="I9">
+        <v>1188.88729657</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1188.80454304</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>4.708100655169402E-3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>2.7549809565777478E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>50</v>
       </c>
@@ -5049,24 +7649,31 @@
       <c r="C10" s="1">
         <v>1189.03297834</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1189.1354171400001</v>
+      </c>
       <c r="E10" s="1">
-        <v>1189.1354171400001</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>1189.02789828</v>
+      </c>
+      <c r="F10">
+        <v>1189.11461394</v>
+      </c>
       <c r="G10">
-        <v>1189.11461394</v>
-      </c>
-      <c r="I10">
+        <v>1188.86636518</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1188.6369368400001</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>8.6145613462972198E-3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>6.8652423444310676E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>42</v>
       </c>
@@ -5076,24 +7683,31 @@
       <c r="C11" s="1">
         <v>1189.03156681</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1189.1317691899999</v>
+      </c>
       <c r="E11" s="1">
-        <v>1189.1317691899999</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>1189.03621417</v>
+      </c>
+      <c r="F11">
+        <v>1189.0407798799999</v>
+      </c>
       <c r="G11">
-        <v>1189.0407798799999</v>
-      </c>
-      <c r="I11">
+        <v>1189.0831991</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1188.7378580500001</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>8.4265161015908835E-3</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>7.7483212988850179E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -5103,24 +7717,31 @@
       <c r="C12" s="1">
         <v>1189.01216952</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1189.09869527</v>
+      </c>
       <c r="E12" s="1">
-        <v>1189.09869527</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>1189.0617815799999</v>
+      </c>
+      <c r="F12">
+        <v>1189.0470369300001</v>
+      </c>
       <c r="G12">
-        <v>1189.0470369300001</v>
-      </c>
-      <c r="I12">
+        <v>1189.0177283999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1188.7117807499999</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>7.2765827045430864E-3</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>2.9323827331578841E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>50</v>
       </c>
@@ -5130,24 +7751,31 @@
       <c r="C13" s="1">
         <v>1189.0090620399999</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1189.0941102199999</v>
+      </c>
       <c r="E13" s="1">
-        <v>1189.0941102199999</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>1189.0480609799999</v>
+      </c>
+      <c r="F13">
+        <v>1189.0327213200001</v>
+      </c>
       <c r="G13">
-        <v>1189.0327213200001</v>
-      </c>
-      <c r="I13">
+        <v>1188.99537244</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1188.8349794400001</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>7.1523506229732156E-3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>1.9897921710606264E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>46</v>
       </c>
@@ -5157,24 +7785,31 @@
       <c r="C14" s="1">
         <v>1189.0504228499999</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1189.14720665</v>
+      </c>
       <c r="E14" s="1">
-        <v>1189.14720665</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>1189.03211889</v>
+      </c>
+      <c r="F14">
+        <v>1189.0064637800001</v>
+      </c>
       <c r="G14">
-        <v>1189.0064637800001</v>
-      </c>
-      <c r="I14">
+        <v>1188.9152665900001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1188.9068075</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>8.1389250598160427E-3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>3.6971262426992472E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>44</v>
       </c>
@@ -5184,24 +7819,31 @@
       <c r="C15" s="1">
         <v>1189.0088576600001</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1189.15737911</v>
+      </c>
       <c r="E15" s="1">
-        <v>1189.15737911</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>1189.01384366</v>
+      </c>
+      <c r="F15">
+        <v>1188.9870104300001</v>
+      </c>
       <c r="G15">
-        <v>1188.9870104300001</v>
-      </c>
-      <c r="I15">
+        <v>1188.88594764</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1188.8132870699999</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>1.2489637840116648E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>1.8374658266575518E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>40</v>
       </c>
@@ -5211,24 +7853,31 @@
       <c r="C16" s="1">
         <v>1189.00685202</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1189.18657317</v>
+      </c>
       <c r="E16" s="1">
-        <v>1189.18657317</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>1189.0315286699999</v>
+      </c>
+      <c r="F16">
+        <v>1189.00537267</v>
+      </c>
       <c r="G16">
-        <v>1189.00537267</v>
-      </c>
-      <c r="I16">
+        <v>1188.9638406500001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1188.91910805</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>1.5112948132343701E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>1.2441911819390249E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>39</v>
       </c>
@@ -5238,24 +7887,31 @@
       <c r="C17" s="1">
         <v>1189.0345785899999</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1189.1916456900001</v>
+      </c>
       <c r="E17" s="1">
-        <v>1189.1916456900001</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>1189.01343228</v>
+      </c>
+      <c r="F17">
+        <v>1189.0072549500001</v>
+      </c>
       <c r="G17">
-        <v>1189.0072549500001</v>
-      </c>
-      <c r="I17">
+        <v>1188.98254797</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1188.99003195</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>1.3207887943834503E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>2.2980213018968126E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>34</v>
       </c>
@@ -5265,24 +7921,31 @@
       <c r="C18" s="1">
         <v>1189.0373750599999</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1189.2974790000001</v>
+      </c>
       <c r="E18" s="1">
-        <v>1189.2974790000001</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>1189.1213147399999</v>
+      </c>
+      <c r="F18">
+        <v>1189.0379395099999</v>
+      </c>
       <c r="G18">
-        <v>1189.0379395099999</v>
-      </c>
-      <c r="I18">
+        <v>1189.0388842</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1189.01403897</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>2.1870385214205559E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>4.7471151356936899E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>29</v>
       </c>
@@ -5292,24 +7955,31 @@
       <c r="C19" s="1">
         <v>1189.1136852100001</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1189.2533267599999</v>
+      </c>
       <c r="E19" s="1">
-        <v>1189.2533267599999</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>1189.14848452</v>
+      </c>
+      <c r="F19">
+        <v>1189.07643583</v>
+      </c>
       <c r="G19">
-        <v>1189.07643583</v>
-      </c>
-      <c r="I19">
+        <v>1189.0383628300001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1188.98302814</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>1.174195159750281E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>3.1326312487260388E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>32</v>
       </c>
@@ -5319,24 +7989,31 @@
       <c r="C20" s="1">
         <v>1189.10099909</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1189.26404712</v>
+      </c>
       <c r="E20" s="1">
-        <v>1189.26404712</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>1189.0404236899999</v>
+      </c>
+      <c r="F20">
+        <v>1189.09961241</v>
+      </c>
       <c r="G20">
-        <v>1189.09961241</v>
-      </c>
-      <c r="I20">
+        <v>1189.07153956</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1189.0131825599999</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>1.3709994041682758E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>1.1661596602369854E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>41</v>
       </c>
@@ -5346,39 +8023,554 @@
       <c r="C21" s="1">
         <v>1189.1347129999999</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1189.29423729</v>
+      </c>
       <c r="E21" s="1">
-        <v>1189.29423729</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>1189.1592418800001</v>
+      </c>
+      <c r="F21">
+        <v>1189.13413337</v>
+      </c>
       <c r="G21">
-        <v>1189.13413337</v>
-      </c>
-      <c r="I21">
+        <v>1189.10634441</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1188.9864205399999</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>1.3413357687121881E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>4.8743870323927223E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="I22">
-        <f>AVERAGE(I2:I21)</f>
-        <v>1.6552499048598887E-2</v>
-      </c>
       <c r="J22">
         <f>AVERAGE(J2:J21)</f>
+        <v>1.6552499048598887E-2</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(K2:K21)</f>
         <v>1.1742092111818378E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="D2">
+        <v>72.129411764699995</v>
+      </c>
+      <c r="E2">
+        <v>135.27058823499999</v>
+      </c>
+      <c r="F2">
+        <v>173.6</v>
+      </c>
+      <c r="G2">
+        <v>195.14117647099999</v>
+      </c>
+      <c r="H2">
+        <v>197.929411765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>83.737499999999997</v>
+      </c>
+      <c r="D3">
+        <v>40.612499999999997</v>
+      </c>
+      <c r="E3">
+        <v>81.5625</v>
+      </c>
+      <c r="F3">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <v>131.36250000000001</v>
+      </c>
+      <c r="H3">
+        <v>135.28749999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>62.412698412700003</v>
+      </c>
+      <c r="D4">
+        <v>30.428571428600002</v>
+      </c>
+      <c r="E4">
+        <v>60.698412698399999</v>
+      </c>
+      <c r="F4">
+        <v>85.317460317499993</v>
+      </c>
+      <c r="G4">
+        <v>97.158730158699996</v>
+      </c>
+      <c r="H4">
+        <v>105.285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>51.9491525424</v>
+      </c>
+      <c r="D5">
+        <v>24.2372881356</v>
+      </c>
+      <c r="E5">
+        <v>51.118644067799998</v>
+      </c>
+      <c r="F5">
+        <v>67.864406779700005</v>
+      </c>
+      <c r="G5">
+        <v>77.457627118600001</v>
+      </c>
+      <c r="H5">
+        <v>80.203389830500001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>45.557692307700002</v>
+      </c>
+      <c r="D6">
+        <v>22.961538461500002</v>
+      </c>
+      <c r="E6">
+        <v>45.538461538500002</v>
+      </c>
+      <c r="F6">
+        <v>62.7692307692</v>
+      </c>
+      <c r="G6">
+        <v>70.096153846199996</v>
+      </c>
+      <c r="H6">
+        <v>70.423076923099998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>38.509433962300001</v>
+      </c>
+      <c r="D7">
+        <v>18.962264150900001</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>54.792452830199998</v>
+      </c>
+      <c r="G7">
+        <v>59.943396226399997</v>
+      </c>
+      <c r="H7">
+        <v>61.792452830199998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>38.604651162800003</v>
+      </c>
+      <c r="D8">
+        <v>18.348837209300001</v>
+      </c>
+      <c r="E8">
+        <v>35.860465116299999</v>
+      </c>
+      <c r="F8">
+        <v>52.302325581399998</v>
+      </c>
+      <c r="G8">
+        <v>55.325581395299999</v>
+      </c>
+      <c r="H8">
+        <v>56.7906976744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>33.693877551</v>
+      </c>
+      <c r="D9">
+        <v>16.755102040800001</v>
+      </c>
+      <c r="E9">
+        <v>34.285714285700003</v>
+      </c>
+      <c r="F9">
+        <v>44.673469387799997</v>
+      </c>
+      <c r="G9">
+        <v>49.326530612200003</v>
+      </c>
+      <c r="H9">
+        <v>48.0408163265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>30.4</v>
+      </c>
+      <c r="D10">
+        <v>15.18</v>
+      </c>
+      <c r="E10">
+        <v>30.14</v>
+      </c>
+      <c r="F10">
+        <v>41.06</v>
+      </c>
+      <c r="G10">
+        <v>45.72</v>
+      </c>
+      <c r="H10">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>30.119047619</v>
+      </c>
+      <c r="D11">
+        <v>15.2380952381</v>
+      </c>
+      <c r="E11">
+        <v>32.047619047600001</v>
+      </c>
+      <c r="F11">
+        <v>43.333333333299997</v>
+      </c>
+      <c r="G11">
+        <v>43.6904761905</v>
+      </c>
+      <c r="H11">
+        <v>45.238095238100001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>29.2</v>
+      </c>
+      <c r="D12">
+        <v>13.483333333299999</v>
+      </c>
+      <c r="E12">
+        <v>28.916666666699999</v>
+      </c>
+      <c r="F12">
+        <v>39.1</v>
+      </c>
+      <c r="G12">
+        <v>41.1</v>
+      </c>
+      <c r="H12">
+        <v>42.133333333300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>26.32</v>
+      </c>
+      <c r="D13">
+        <v>13.54</v>
+      </c>
+      <c r="E13">
+        <v>27.58</v>
+      </c>
+      <c r="F13">
+        <v>39.32</v>
+      </c>
+      <c r="G13">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="H13">
+        <v>41.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>26.7608695652</v>
+      </c>
+      <c r="D14">
+        <v>12.673913043500001</v>
+      </c>
+      <c r="E14">
+        <v>27.2608695652</v>
+      </c>
+      <c r="F14">
+        <v>36.673913043500001</v>
+      </c>
+      <c r="G14">
+        <v>40.608695652199998</v>
+      </c>
+      <c r="H14">
+        <v>40.543478260900002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>11.727272727300001</v>
+      </c>
+      <c r="E15">
+        <v>22.431818181800001</v>
+      </c>
+      <c r="F15">
+        <v>34.613636363600001</v>
+      </c>
+      <c r="G15">
+        <v>35.727272727299997</v>
+      </c>
+      <c r="H15">
+        <v>38.772727272700003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>24.3</v>
+      </c>
+      <c r="D16">
+        <v>11.275</v>
+      </c>
+      <c r="E16">
+        <v>21.8</v>
+      </c>
+      <c r="F16">
+        <v>31.8</v>
+      </c>
+      <c r="G16">
+        <v>34.625</v>
+      </c>
+      <c r="H16">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>20.871794871799999</v>
+      </c>
+      <c r="D17">
+        <v>10.8461538462</v>
+      </c>
+      <c r="E17">
+        <v>20.025641025599999</v>
+      </c>
+      <c r="F17">
+        <v>25.512820512800001</v>
+      </c>
+      <c r="G17">
+        <v>30.897435897400001</v>
+      </c>
+      <c r="H17">
+        <v>29.974358974400001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>22.588235294099999</v>
+      </c>
+      <c r="D18">
+        <v>10.1470588235</v>
+      </c>
+      <c r="E18">
+        <v>17.588235294099999</v>
+      </c>
+      <c r="F18">
+        <v>27.764705882400001</v>
+      </c>
+      <c r="G18">
+        <v>30.3529411765</v>
+      </c>
+      <c r="H18">
+        <v>30.235294117599999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>19.034482758599999</v>
+      </c>
+      <c r="D19">
+        <v>9.3103448275900007</v>
+      </c>
+      <c r="E19">
+        <v>16.448275862100001</v>
+      </c>
+      <c r="F19">
+        <v>24.724137931000001</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>30.4137931034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>15.125</v>
+      </c>
+      <c r="D20">
+        <v>7.1875</v>
+      </c>
+      <c r="E20">
+        <v>14.90625</v>
+      </c>
+      <c r="F20">
+        <v>22.0625</v>
+      </c>
+      <c r="G20">
+        <v>21.6875</v>
+      </c>
+      <c r="H20">
+        <v>20.28125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>6.9268292682899997</v>
+      </c>
+      <c r="E21">
+        <v>11.585365853700001</v>
+      </c>
+      <c r="F21">
+        <v>16.487804877999999</v>
+      </c>
+      <c r="G21">
+        <v>18.756097561000001</v>
+      </c>
+      <c r="H21">
+        <v>18.3414634146</v>
       </c>
     </row>
   </sheetData>
